--- a/cldr/main/metazone.xlsx
+++ b/cldr/main/metazone.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="782">
   <si>
     <t xml:space="preserve">Акри время</t>
   </si>
@@ -2366,1233 +2366,6 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;metazone type="Yukon"&gt;&lt;long&gt;&lt;standard&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Австралазия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Австралазиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Австралия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Австралиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Австрия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Австриа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Азия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Азиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аландские о-ва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аландтәи ад-хақәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Албания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Албаниа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алжир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Америка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Американское Самоа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Америкатәи Самоа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ангилья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ангилиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ангола</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Андорра</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антарктида</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антигуа и Барбуда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Антигуеи Барбудеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аруба</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Африка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Багамы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Баӷама</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Барбадос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бахрейн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бахреин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беларусь</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беларус</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Белиз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бельгия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бельгиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бенин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бермудские о-ва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бермудтәи ад-хақәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Болгария</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Болгариа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бонэйр, Синт-Эстатиус и Саба</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бонеир, Синт-Естатиуси Сабеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Босния и Герцеговина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Босниеи Герцеговинеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ботсвана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Британия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Британиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Британская территория в Индийском океане</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Британиатәи аҵакырадгьыл Индиатәи аокеан аҟны</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Буркина-Фасо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бурунди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ватикан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Великобритания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Британиа ду</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Венгрия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Венгриа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">весь мир</t>
-  </si>
-  <si>
-    <t xml:space="preserve">адунеи зегьы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виргинские о-ва (Великобритания)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виргинтәи ад-хақәа (Британиаду)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виргинские о-ва (США)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виргинтәи ад-хақәа (ЕАШ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внешние малые о-ва (США)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нҭыҵтәи малыетәи ад-қәа (ЕАШ)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внешняя Океания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нҭыҵтәи Океаниа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Восточная Азия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мрагыларатәи Азиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вьетнам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виетнам</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Габон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гаити</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гамбия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гамбиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гана</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гваделупа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гватемала</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гвинея</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гвинеиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гвинея-Бисау</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гвинеиа-Бисау</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Германия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Германиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гернси</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гибралтар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гондурас</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гонконг (САР)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Гонконг </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(ҶАР)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Гренада</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гренландия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гренландиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Греция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бырзентәыла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Даниа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Джерси</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Џерси</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Джибути</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Џибути</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Диего-Гарсия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Диего-Гарсиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доминика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доминиканская Республика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Доминиканатәи Ареспублика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">еврозона</t>
-  </si>
-  <si>
-    <t xml:space="preserve">евроцәаҳәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Европа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Европейский союз</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Европатәи аидгыла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Египет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Замбия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Замбиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Западная Азия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мраҭашәаратәи Азиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Западная Сахара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мраҭашәаратәи Сахара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зимбабве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Индонезия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Индонезиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иордания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иорданиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ирак</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ирландия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ирландиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исландия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исландиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Испания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Испаниа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Италия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Италиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Йемен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иемен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Казахстан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ҟазахсҭан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Камбоджа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Камбоџа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Камерун</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Канада</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Канарские о-ва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Канартәи ад-хақәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Карибы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кариб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Катар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кениа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кипр</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кирибати</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КНДР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">КЖӘДР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кокостәи ад-қәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коморы</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Комор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конго - Браззавиль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конго-Браззавиль</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конго - Киншаса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конго-Киншаса</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конго (ДРК)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конго (АРК)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коста-Рика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кот-д’Ивуар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кувейт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кувеит</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кюрасао</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Киурасао</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лаос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Латвия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Латвиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Латинская Америка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алаҭынтәи Америка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лесото</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Либерия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Либериа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ливан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ливия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ливиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Литва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лихтенштейн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лихтенштеин</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Люксембург</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лиуксембург</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мавритания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мавританиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мадагаскар</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Майотта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Маиотта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Макао (САР)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Макао </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(ҶАР)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Малави</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мали</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мальта</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марокко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мартиника</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мексика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Меланезия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Меланезиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Микронезия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Микронезиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мозамбик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Молдова</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монако</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монголия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монголиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Монтсеррат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мьянма (Бирма)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мианма (Бирма)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Намибия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Намибиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">неизвестный регион</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">еилкаам</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> арегион</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Нигер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нигерия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нигериа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нидерланды</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нидерланд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Никарагуа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Норвегия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Норвегиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о-в Буве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ад-ха Буве</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о-в Вознесения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ад-ха Вознесениа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о-в Клиппертон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ад-ха Клиппертон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о-в Мэн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ад-ха Мен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о-в Норфолк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ад-ха Норфолк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о-в Св. Елены</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Иԥшьоу Елена ладгьылбжьаха</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о-ва Питкэрн</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Питкерн ад-хақәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о-ва Тёркс и Кайкос</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ад-хақәа Тиоркси Каикоси</t>
-  </si>
-  <si>
-    <t xml:space="preserve">о-ва Херд и Макдональд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ад-хақәа Херди Макдональди</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ОАЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕАЕ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Океания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Океаниа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оман</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ООН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕАР</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Организация Объединенных Наций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Еиду Амилаҭқәа Реиҿкаара</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Острова Кайман</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Адгьылбжьахақәа Каиман</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палестина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палестинские территории</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Палестинатәи аҵакырадгьылқәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Панама</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Папуа — Новая Гвинея</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полинезия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полинезиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Польша</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Португалия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Португалиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">псевдо-Bidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амц-Bidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">псевдоакценты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">амццәажәашьақәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пуэрто-Рико</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пуерто-Рико</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Конго</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ареспублика Конго</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Республика Корея</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кореиа Ареспублика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Россия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Урыстәыла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Руанда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Румыния</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Румыниа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сальвадор</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сан-Марино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сан-Томе и Принсипи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сан-Томеи Принсипиеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свазиленд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северная Америка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аҩадатәи Америка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северная Африка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аҩадатәи Африка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северная Европа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аҩадатәи Европа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северная Македония</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аҩадатәи Македониа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Североамериканский регион</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аҩада-Америкатәи арегион</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сен-Бартелеми</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сен-Мартен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сенегал</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сент-Винсент и Гренадины</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сент-Винсенти Гренадини</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сент-Китс и Невис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сент-Китси Невиси</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сент-Люсия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сент-Люсиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сербия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сербиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сеута и Мелилья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сеутеи Мелилиеи</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Синт-Мартен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сирия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шьамтәыла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Словакия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Словакиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Словения</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Словениа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соединенные Штаты</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Еиду Аштатқәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сомали</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Судан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">США</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ЕАШ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сьерра-Леоне</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сиерра-Леоне</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Таиланд</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Танзания</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Танзаниа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тимор-Лесте</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Того</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тринидад и Тобаго</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тринидади Тобагои</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тристан-да-Кунья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тристан-да-Куниа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тропическая Африка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Атроптә Африка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тунис</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ҭурқменисҭан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Турция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ҭырқәтәыла</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уганда</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Украина</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фарерские о-ва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фарертәи ад-хақәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Федеративные Штаты Микронезии</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Еилоу Микронезиатәи Аштатқәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Финляндия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Финлиандиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фолклендские (Мальвинские) о-ва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фолклендтәи (Мальвинтәи) ад-хақәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Франция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Франциа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Французская Полинезия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Францызтәи Полинезиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Французские Южные территории</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Францызтәи Аладатәи аҵакырадгьылқәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хорватия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хорватиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Центральная Азия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Агәҭантәи Азиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Центрально-Африканская Республика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Агәҭантәи-Африкатәи Ареспублика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чад</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Черногория</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ашьхеиқәаҵәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чехия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чехиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чешская Республика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чехтәи ареспублика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швейцария</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеицариа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швеция</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Швециа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шпицберген и Ян-Майен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Шпицбергени Иан-Маиени</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Экваториальная Гвинея</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Екваториалтәи Гвинеиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эритрея</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Еритреиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эсватини</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Есватини</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эстония</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Естониа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Эфиопия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ефиопиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Юго-Восточная Азия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алада-Мрагыларатәи Азиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южная Азия</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аладатәи Азиа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южная Америка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аладатәи Америка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южная Георгия и Южные Сандвичевы о-ва</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аладатәи Георгиеи Аладатәи Сандвичқәеи ад-қәа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южная Европа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аладатәи Европа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южно-Африканская Республика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алада-Африкатәи ареспублика</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южный Судан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аладатәи Судан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ямайка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Иамаика</t>
   </si>
 </sst>
 </file>
@@ -3602,7 +2375,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3623,39 +2396,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3692,32 +2439,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3730,26 +2457,11 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF7F7F7"/>
-          <bgColor rgb="FF272727"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3762,10 +2474,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J465"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7572,4596 +6284,6 @@
         <v>12</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
-      <c r="I160" s="3"/>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
-      <c r="H161" s="3"/>
-      <c r="I161" s="3"/>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>787</v>
-      </c>
-      <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
-      <c r="H162" s="3"/>
-      <c r="I162" s="3"/>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
-      <c r="H163" s="3"/>
-      <c r="I163" s="3"/>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
-      <c r="H164" s="3"/>
-      <c r="I164" s="3"/>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-      <c r="E165" s="3"/>
-      <c r="F165" s="3"/>
-      <c r="G165" s="3"/>
-      <c r="H165" s="3"/>
-      <c r="I165" s="3"/>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-      <c r="E166" s="3"/>
-      <c r="F166" s="3"/>
-      <c r="G166" s="3"/>
-      <c r="H166" s="3"/>
-      <c r="I166" s="3"/>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-      <c r="E167" s="3"/>
-      <c r="F167" s="3"/>
-      <c r="G167" s="3"/>
-      <c r="H167" s="3"/>
-      <c r="I167" s="3"/>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
-      <c r="H168" s="3"/>
-      <c r="I168" s="3"/>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-      <c r="E169" s="3"/>
-      <c r="F169" s="3"/>
-      <c r="G169" s="3"/>
-      <c r="H169" s="3"/>
-      <c r="I169" s="3"/>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-      <c r="E170" s="3"/>
-      <c r="F170" s="3"/>
-      <c r="G170" s="3"/>
-      <c r="H170" s="3"/>
-      <c r="I170" s="3"/>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-      <c r="E171" s="3"/>
-      <c r="F171" s="3"/>
-      <c r="G171" s="3"/>
-      <c r="H171" s="3"/>
-      <c r="I171" s="3"/>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-      <c r="E172" s="3"/>
-      <c r="F172" s="3"/>
-      <c r="G172" s="3"/>
-      <c r="H172" s="3"/>
-      <c r="I172" s="3"/>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-      <c r="E173" s="3"/>
-      <c r="F173" s="3"/>
-      <c r="G173" s="3"/>
-      <c r="H173" s="3"/>
-      <c r="I173" s="3"/>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-      <c r="E174" s="3"/>
-      <c r="F174" s="3"/>
-      <c r="G174" s="3"/>
-      <c r="H174" s="3"/>
-      <c r="I174" s="3"/>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-      <c r="E175" s="3"/>
-      <c r="F175" s="3"/>
-      <c r="G175" s="3"/>
-      <c r="H175" s="3"/>
-      <c r="I175" s="3"/>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-      <c r="E176" s="3"/>
-      <c r="F176" s="3"/>
-      <c r="G176" s="3"/>
-      <c r="H176" s="3"/>
-      <c r="I176" s="3"/>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-      <c r="E177" s="3"/>
-      <c r="F177" s="3"/>
-      <c r="G177" s="3"/>
-      <c r="H177" s="3"/>
-      <c r="I177" s="3"/>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-      <c r="E178" s="3"/>
-      <c r="F178" s="3"/>
-      <c r="G178" s="3"/>
-      <c r="H178" s="3"/>
-      <c r="I178" s="3"/>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-      <c r="E179" s="3"/>
-      <c r="F179" s="3"/>
-      <c r="G179" s="3"/>
-      <c r="H179" s="3"/>
-      <c r="I179" s="3"/>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="B180" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-      <c r="E180" s="3"/>
-      <c r="F180" s="3"/>
-      <c r="G180" s="3"/>
-      <c r="H180" s="3"/>
-      <c r="I180" s="3"/>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-      <c r="E181" s="3"/>
-      <c r="F181" s="3"/>
-      <c r="G181" s="3"/>
-      <c r="H181" s="3"/>
-      <c r="I181" s="3"/>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-      <c r="E182" s="3"/>
-      <c r="F182" s="3"/>
-      <c r="G182" s="3"/>
-      <c r="H182" s="3"/>
-      <c r="I182" s="3"/>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-      <c r="E183" s="3"/>
-      <c r="F183" s="3"/>
-      <c r="G183" s="3"/>
-      <c r="H183" s="3"/>
-      <c r="I183" s="3"/>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-      <c r="E184" s="3"/>
-      <c r="F184" s="3"/>
-      <c r="G184" s="3"/>
-      <c r="H184" s="3"/>
-      <c r="I184" s="3"/>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-      <c r="E185" s="3"/>
-      <c r="F185" s="3"/>
-      <c r="G185" s="3"/>
-      <c r="H185" s="3"/>
-      <c r="I185" s="3"/>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-      <c r="E186" s="3"/>
-      <c r="F186" s="3"/>
-      <c r="G186" s="3"/>
-      <c r="H186" s="3"/>
-      <c r="I186" s="3"/>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-      <c r="G187" s="3"/>
-      <c r="H187" s="3"/>
-      <c r="I187" s="3"/>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
-      <c r="E188" s="3"/>
-      <c r="F188" s="3"/>
-      <c r="G188" s="3"/>
-      <c r="H188" s="3"/>
-      <c r="I188" s="3"/>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
-      <c r="E189" s="3"/>
-      <c r="F189" s="3"/>
-      <c r="G189" s="3"/>
-      <c r="H189" s="3"/>
-      <c r="I189" s="3"/>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C190" s="3"/>
-      <c r="D190" s="3"/>
-      <c r="E190" s="3"/>
-      <c r="F190" s="3"/>
-      <c r="G190" s="3"/>
-      <c r="H190" s="3"/>
-      <c r="I190" s="3"/>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
-      <c r="E191" s="3"/>
-      <c r="F191" s="3"/>
-      <c r="G191" s="3"/>
-      <c r="H191" s="3"/>
-      <c r="I191" s="3"/>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-      <c r="E192" s="3"/>
-      <c r="F192" s="3"/>
-      <c r="G192" s="3"/>
-      <c r="H192" s="3"/>
-      <c r="I192" s="3"/>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-      <c r="E193" s="3"/>
-      <c r="F193" s="3"/>
-      <c r="G193" s="3"/>
-      <c r="H193" s="3"/>
-      <c r="I193" s="3"/>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-      <c r="E194" s="3"/>
-      <c r="F194" s="3"/>
-      <c r="G194" s="3"/>
-      <c r="H194" s="3"/>
-      <c r="I194" s="3"/>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-      <c r="E195" s="3"/>
-      <c r="F195" s="3"/>
-      <c r="G195" s="3"/>
-      <c r="H195" s="3"/>
-      <c r="I195" s="3"/>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-      <c r="E196" s="3"/>
-      <c r="F196" s="3"/>
-      <c r="G196" s="3"/>
-      <c r="H196" s="3"/>
-      <c r="I196" s="3"/>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-      <c r="E197" s="3"/>
-      <c r="F197" s="3"/>
-      <c r="G197" s="3"/>
-      <c r="H197" s="3"/>
-      <c r="I197" s="3"/>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-      <c r="E198" s="3"/>
-      <c r="F198" s="3"/>
-      <c r="G198" s="3"/>
-      <c r="H198" s="3"/>
-      <c r="I198" s="3"/>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-      <c r="E199" s="3"/>
-      <c r="F199" s="3"/>
-      <c r="G199" s="3"/>
-      <c r="H199" s="3"/>
-      <c r="I199" s="3"/>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-      <c r="E200" s="3"/>
-      <c r="F200" s="3"/>
-      <c r="G200" s="3"/>
-      <c r="H200" s="3"/>
-      <c r="I200" s="3"/>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="H201" s="3"/>
-      <c r="I201" s="3"/>
-    </row>
-    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="H202" s="3"/>
-      <c r="I202" s="3"/>
-    </row>
-    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="H203" s="3"/>
-      <c r="I203" s="3"/>
-    </row>
-    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="H204" s="3"/>
-      <c r="I204" s="3"/>
-    </row>
-    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>743</v>
-      </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="H205" s="3"/>
-      <c r="I205" s="3"/>
-    </row>
-    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="H206" s="3"/>
-      <c r="I206" s="3"/>
-    </row>
-    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="H207" s="3"/>
-      <c r="I207" s="3"/>
-    </row>
-    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="H208" s="3"/>
-      <c r="I208" s="3"/>
-    </row>
-    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="H209" s="3"/>
-      <c r="I209" s="3"/>
-    </row>
-    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="B210" s="4" t="s">
-        <v>847</v>
-      </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="H210" s="3"/>
-      <c r="I210" s="3"/>
-    </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="2" t="s">
-        <v>848</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="H211" s="3"/>
-      <c r="I211" s="3"/>
-    </row>
-    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B212" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="H212" s="3"/>
-      <c r="I212" s="3"/>
-    </row>
-    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B213" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="H213" s="3"/>
-      <c r="I213" s="3"/>
-    </row>
-    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B214" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="H214" s="3"/>
-      <c r="I214" s="3"/>
-    </row>
-    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="H215" s="3"/>
-      <c r="I215" s="3"/>
-    </row>
-    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="H216" s="3"/>
-      <c r="I216" s="3"/>
-    </row>
-    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="H217" s="3"/>
-      <c r="I217" s="3"/>
-    </row>
-    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="H218" s="3"/>
-      <c r="I218" s="3"/>
-    </row>
-    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="2" t="s">
-        <v>854</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="H219" s="3"/>
-      <c r="I219" s="3"/>
-    </row>
-    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="H220" s="3"/>
-      <c r="I220" s="3"/>
-    </row>
-    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>857</v>
-      </c>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="H221" s="3"/>
-      <c r="I221" s="3"/>
-    </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>858</v>
-      </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="H222" s="3"/>
-      <c r="I222" s="3"/>
-    </row>
-    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="2" t="s">
-        <v>859</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="H223" s="3"/>
-      <c r="I223" s="3"/>
-    </row>
-    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="2" t="s">
-        <v>861</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-      <c r="F224" s="3"/>
-      <c r="G224" s="3"/>
-      <c r="H224" s="3"/>
-      <c r="I224" s="3"/>
-    </row>
-    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>864</v>
-      </c>
-      <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
-      <c r="F225" s="3"/>
-      <c r="G225" s="3"/>
-      <c r="H225" s="3"/>
-      <c r="I225" s="3"/>
-    </row>
-    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
-      <c r="F226" s="3"/>
-      <c r="G226" s="3"/>
-      <c r="H226" s="3"/>
-      <c r="I226" s="3"/>
-    </row>
-    <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>866</v>
-      </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
-      <c r="F227" s="3"/>
-      <c r="G227" s="3"/>
-      <c r="H227" s="3"/>
-      <c r="I227" s="3"/>
-    </row>
-    <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-      <c r="E228" s="3"/>
-      <c r="F228" s="3"/>
-      <c r="G228" s="3"/>
-      <c r="H228" s="3"/>
-      <c r="I228" s="3"/>
-    </row>
-    <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-      <c r="E229" s="3"/>
-      <c r="F229" s="3"/>
-      <c r="G229" s="3"/>
-      <c r="H229" s="3"/>
-      <c r="I229" s="3"/>
-    </row>
-    <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="B230" s="4" t="s">
-        <v>869</v>
-      </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-      <c r="E230" s="3"/>
-      <c r="F230" s="3"/>
-      <c r="G230" s="3"/>
-      <c r="H230" s="3"/>
-      <c r="I230" s="3"/>
-    </row>
-    <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
-      <c r="E231" s="3"/>
-      <c r="F231" s="3"/>
-      <c r="G231" s="3"/>
-      <c r="H231" s="3"/>
-      <c r="I231" s="3"/>
-    </row>
-    <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-      <c r="E232" s="3"/>
-      <c r="F232" s="3"/>
-      <c r="G232" s="3"/>
-      <c r="H232" s="3"/>
-      <c r="I232" s="3"/>
-    </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
-      <c r="F233" s="3"/>
-      <c r="G233" s="3"/>
-      <c r="H233" s="3"/>
-      <c r="I233" s="3"/>
-    </row>
-    <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B234" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-      <c r="E234" s="3"/>
-      <c r="F234" s="3"/>
-      <c r="G234" s="3"/>
-      <c r="H234" s="3"/>
-      <c r="I234" s="3"/>
-    </row>
-    <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-      <c r="E235" s="3"/>
-      <c r="F235" s="3"/>
-      <c r="G235" s="3"/>
-      <c r="H235" s="3"/>
-      <c r="I235" s="3"/>
-    </row>
-    <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
-      <c r="E236" s="3"/>
-      <c r="F236" s="3"/>
-      <c r="G236" s="3"/>
-      <c r="H236" s="3"/>
-      <c r="I236" s="3"/>
-    </row>
-    <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="2" t="s">
-        <v>877</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>878</v>
-      </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-      <c r="E237" s="3"/>
-      <c r="F237" s="3"/>
-      <c r="G237" s="3"/>
-      <c r="H237" s="3"/>
-      <c r="I237" s="3"/>
-    </row>
-    <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-    </row>
-    <row r="239" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-      <c r="E239" s="3"/>
-      <c r="F239" s="3"/>
-      <c r="G239" s="3"/>
-      <c r="H239" s="3"/>
-      <c r="I239" s="3"/>
-    </row>
-    <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>883</v>
-      </c>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-      <c r="E240" s="3"/>
-      <c r="F240" s="3"/>
-      <c r="G240" s="3"/>
-      <c r="H240" s="3"/>
-      <c r="I240" s="3"/>
-    </row>
-    <row r="241" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="2" t="s">
-        <v>884</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>885</v>
-      </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-      <c r="E241" s="3"/>
-      <c r="F241" s="3"/>
-      <c r="G241" s="3"/>
-      <c r="H241" s="3"/>
-      <c r="I241" s="3"/>
-    </row>
-    <row r="242" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="2" t="s">
-        <v>886</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>887</v>
-      </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
-      <c r="F242" s="3"/>
-      <c r="G242" s="3"/>
-      <c r="H242" s="3"/>
-      <c r="I242" s="3"/>
-    </row>
-    <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>888</v>
-      </c>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
-      <c r="F243" s="3"/>
-      <c r="G243" s="3"/>
-      <c r="H243" s="3"/>
-      <c r="I243" s="3"/>
-    </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="2" t="s">
-        <v>889</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>890</v>
-      </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-      <c r="E244" s="3"/>
-      <c r="F244" s="3"/>
-      <c r="G244" s="3"/>
-      <c r="H244" s="3"/>
-      <c r="I244" s="3"/>
-    </row>
-    <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-      <c r="E245" s="3"/>
-      <c r="F245" s="3"/>
-      <c r="G245" s="3"/>
-      <c r="H245" s="3"/>
-      <c r="I245" s="3"/>
-    </row>
-    <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-      <c r="E246" s="3"/>
-      <c r="F246" s="3"/>
-      <c r="G246" s="3"/>
-      <c r="H246" s="3"/>
-      <c r="I246" s="3"/>
-    </row>
-    <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="2" t="s">
-        <v>894</v>
-      </c>
-      <c r="B247" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="H247" s="3"/>
-      <c r="I247" s="3"/>
-    </row>
-    <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B248" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="H248" s="3"/>
-      <c r="I248" s="3"/>
-    </row>
-    <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B249" s="4" t="s">
-        <v>305</v>
-      </c>
-      <c r="C249" s="3"/>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-    </row>
-    <row r="250" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="B250" s="4" t="s">
-        <v>897</v>
-      </c>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-    </row>
-    <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-    </row>
-    <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-    </row>
-    <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-    </row>
-    <row r="254" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>900</v>
-      </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-      <c r="E254" s="3"/>
-      <c r="F254" s="3"/>
-      <c r="G254" s="3"/>
-      <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-    </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-      <c r="E255" s="3"/>
-      <c r="F255" s="3"/>
-      <c r="G255" s="3"/>
-      <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-    </row>
-    <row r="256" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
-      <c r="G256" s="3"/>
-      <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-    </row>
-    <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
-      <c r="G257" s="3"/>
-      <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-    </row>
-    <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-      <c r="E258" s="3"/>
-      <c r="F258" s="3"/>
-      <c r="G258" s="3"/>
-      <c r="H258" s="3"/>
-      <c r="I258" s="3"/>
-    </row>
-    <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>907</v>
-      </c>
-      <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
-      <c r="E259" s="3"/>
-      <c r="F259" s="3"/>
-      <c r="G259" s="3"/>
-      <c r="H259" s="3"/>
-      <c r="I259" s="3"/>
-    </row>
-    <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
-      <c r="F260" s="3"/>
-      <c r="G260" s="3"/>
-      <c r="H260" s="3"/>
-      <c r="I260" s="3"/>
-    </row>
-    <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-      <c r="E261" s="3"/>
-      <c r="F261" s="3"/>
-      <c r="G261" s="3"/>
-      <c r="H261" s="3"/>
-      <c r="I261" s="3"/>
-    </row>
-    <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-      <c r="E262" s="3"/>
-      <c r="F262" s="3"/>
-      <c r="G262" s="3"/>
-      <c r="H262" s="3"/>
-      <c r="I262" s="3"/>
-    </row>
-    <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
-      <c r="E263" s="3"/>
-      <c r="F263" s="3"/>
-      <c r="G263" s="3"/>
-      <c r="H263" s="3"/>
-      <c r="I263" s="3"/>
-    </row>
-    <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>915</v>
-      </c>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-      <c r="E264" s="3"/>
-      <c r="F264" s="3"/>
-      <c r="G264" s="3"/>
-      <c r="H264" s="3"/>
-      <c r="I264" s="3"/>
-    </row>
-    <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
-      <c r="F265" s="3"/>
-      <c r="G265" s="3"/>
-      <c r="H265" s="3"/>
-      <c r="I265" s="3"/>
-    </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>918</v>
-      </c>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-      <c r="E266" s="3"/>
-      <c r="F266" s="3"/>
-      <c r="G266" s="3"/>
-      <c r="H266" s="3"/>
-      <c r="I266" s="3"/>
-    </row>
-    <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>919</v>
-      </c>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-      <c r="E267" s="3"/>
-      <c r="F267" s="3"/>
-      <c r="G267" s="3"/>
-      <c r="H267" s="3"/>
-      <c r="I267" s="3"/>
-    </row>
-    <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="2" t="s">
-        <v>920</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-      <c r="E268" s="3"/>
-      <c r="F268" s="3"/>
-      <c r="G268" s="3"/>
-      <c r="H268" s="3"/>
-      <c r="I268" s="3"/>
-    </row>
-    <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
-      <c r="F269" s="3"/>
-      <c r="G269" s="3"/>
-      <c r="H269" s="3"/>
-      <c r="I269" s="3"/>
-    </row>
-    <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
-      <c r="E270" s="3"/>
-      <c r="F270" s="3"/>
-      <c r="G270" s="3"/>
-      <c r="H270" s="3"/>
-      <c r="I270" s="3"/>
-    </row>
-    <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="2" t="s">
-        <v>925</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>926</v>
-      </c>
-      <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
-      <c r="E271" s="3"/>
-      <c r="F271" s="3"/>
-      <c r="G271" s="3"/>
-      <c r="H271" s="3"/>
-      <c r="I271" s="3"/>
-    </row>
-    <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>927</v>
-      </c>
-      <c r="C272" s="3"/>
-      <c r="D272" s="3"/>
-      <c r="E272" s="3"/>
-      <c r="F272" s="3"/>
-      <c r="G272" s="3"/>
-      <c r="H272" s="3"/>
-      <c r="I272" s="3"/>
-    </row>
-    <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A273" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="C273" s="3"/>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
-      <c r="F273" s="3"/>
-      <c r="G273" s="3"/>
-      <c r="H273" s="3"/>
-      <c r="I273" s="3"/>
-    </row>
-    <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A274" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
-      <c r="F274" s="3"/>
-      <c r="G274" s="3"/>
-      <c r="H274" s="3"/>
-      <c r="I274" s="3"/>
-    </row>
-    <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3"/>
-      <c r="E275" s="3"/>
-      <c r="F275" s="3"/>
-      <c r="G275" s="3"/>
-      <c r="H275" s="3"/>
-      <c r="I275" s="3"/>
-    </row>
-    <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A276" s="2" t="s">
-        <v>929</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>930</v>
-      </c>
-      <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
-      <c r="E276" s="3"/>
-      <c r="F276" s="3"/>
-      <c r="G276" s="3"/>
-      <c r="H276" s="3"/>
-      <c r="I276" s="3"/>
-    </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A277" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>931</v>
-      </c>
-      <c r="C277" s="3"/>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
-      <c r="F277" s="3"/>
-      <c r="G277" s="3"/>
-      <c r="H277" s="3"/>
-      <c r="I277" s="3"/>
-    </row>
-    <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A278" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C278" s="3"/>
-      <c r="D278" s="3"/>
-      <c r="E278" s="3"/>
-      <c r="F278" s="3"/>
-      <c r="G278" s="3"/>
-      <c r="H278" s="3"/>
-      <c r="I278" s="3"/>
-    </row>
-    <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A279" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="C279" s="3"/>
-      <c r="D279" s="3"/>
-      <c r="E279" s="3"/>
-      <c r="F279" s="3"/>
-      <c r="G279" s="3"/>
-      <c r="H279" s="3"/>
-      <c r="I279" s="3"/>
-    </row>
-    <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A280" s="2" t="s">
-        <v>934</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="C280" s="3"/>
-      <c r="D280" s="3"/>
-      <c r="E280" s="3"/>
-      <c r="F280" s="3"/>
-      <c r="G280" s="3"/>
-      <c r="H280" s="3"/>
-      <c r="I280" s="3"/>
-    </row>
-    <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A281" s="2" t="s">
-        <v>936</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-      <c r="F281" s="3"/>
-      <c r="G281" s="3"/>
-      <c r="H281" s="3"/>
-      <c r="I281" s="3"/>
-    </row>
-    <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A282" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-      <c r="F282" s="3"/>
-      <c r="G282" s="3"/>
-      <c r="H282" s="3"/>
-      <c r="I282" s="3"/>
-    </row>
-    <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A283" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>940</v>
-      </c>
-      <c r="C283" s="3"/>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
-      <c r="F283" s="3"/>
-      <c r="G283" s="3"/>
-      <c r="H283" s="3"/>
-      <c r="I283" s="3"/>
-    </row>
-    <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A284" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="C284" s="3"/>
-      <c r="D284" s="3"/>
-      <c r="E284" s="3"/>
-      <c r="F284" s="3"/>
-      <c r="G284" s="3"/>
-      <c r="H284" s="3"/>
-      <c r="I284" s="3"/>
-    </row>
-    <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C285" s="3"/>
-      <c r="D285" s="3"/>
-      <c r="E285" s="3"/>
-      <c r="F285" s="3"/>
-      <c r="G285" s="3"/>
-      <c r="H285" s="3"/>
-      <c r="I285" s="3"/>
-    </row>
-    <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A286" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="C286" s="3"/>
-      <c r="D286" s="3"/>
-      <c r="E286" s="3"/>
-      <c r="F286" s="3"/>
-      <c r="G286" s="3"/>
-      <c r="H286" s="3"/>
-      <c r="I286" s="3"/>
-    </row>
-    <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="C287" s="3"/>
-      <c r="D287" s="3"/>
-      <c r="E287" s="3"/>
-      <c r="F287" s="3"/>
-      <c r="G287" s="3"/>
-      <c r="H287" s="3"/>
-      <c r="I287" s="3"/>
-    </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="2" t="s">
-        <v>945</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="C288" s="3"/>
-      <c r="D288" s="3"/>
-      <c r="E288" s="3"/>
-      <c r="F288" s="3"/>
-      <c r="G288" s="3"/>
-      <c r="H288" s="3"/>
-      <c r="I288" s="3"/>
-    </row>
-    <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A289" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="C289" s="3"/>
-      <c r="D289" s="3"/>
-      <c r="E289" s="3"/>
-      <c r="F289" s="3"/>
-      <c r="G289" s="3"/>
-      <c r="H289" s="3"/>
-      <c r="I289" s="3"/>
-    </row>
-    <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3"/>
-      <c r="E290" s="3"/>
-      <c r="F290" s="3"/>
-      <c r="G290" s="3"/>
-      <c r="H290" s="3"/>
-      <c r="I290" s="3"/>
-    </row>
-    <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="B291" s="4" t="s">
-        <v>951</v>
-      </c>
-      <c r="C291" s="3"/>
-      <c r="D291" s="3"/>
-      <c r="E291" s="3"/>
-      <c r="F291" s="3"/>
-      <c r="G291" s="3"/>
-      <c r="H291" s="3"/>
-      <c r="I291" s="3"/>
-    </row>
-    <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="C292" s="3"/>
-      <c r="D292" s="3"/>
-      <c r="E292" s="3"/>
-      <c r="F292" s="3"/>
-      <c r="G292" s="3"/>
-      <c r="H292" s="3"/>
-      <c r="I292" s="3"/>
-    </row>
-    <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
-      <c r="F293" s="3"/>
-      <c r="G293" s="3"/>
-      <c r="H293" s="3"/>
-      <c r="I293" s="3"/>
-    </row>
-    <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>955</v>
-      </c>
-      <c r="C294" s="3"/>
-      <c r="D294" s="3"/>
-      <c r="E294" s="3"/>
-      <c r="F294" s="3"/>
-      <c r="G294" s="3"/>
-      <c r="H294" s="3"/>
-      <c r="I294" s="3"/>
-    </row>
-    <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A295" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>957</v>
-      </c>
-      <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
-      <c r="E295" s="3"/>
-      <c r="F295" s="3"/>
-      <c r="G295" s="3"/>
-      <c r="H295" s="3"/>
-      <c r="I295" s="3"/>
-    </row>
-    <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A296" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="C296" s="3"/>
-      <c r="D296" s="3"/>
-      <c r="E296" s="3"/>
-      <c r="F296" s="3"/>
-      <c r="G296" s="3"/>
-      <c r="H296" s="3"/>
-      <c r="I296" s="3"/>
-    </row>
-    <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="2" t="s">
-        <v>959</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
-      <c r="E297" s="3"/>
-      <c r="F297" s="3"/>
-      <c r="G297" s="3"/>
-      <c r="H297" s="3"/>
-      <c r="I297" s="3"/>
-    </row>
-    <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A298" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="C298" s="3"/>
-      <c r="D298" s="3"/>
-      <c r="E298" s="3"/>
-      <c r="F298" s="3"/>
-      <c r="G298" s="3"/>
-      <c r="H298" s="3"/>
-      <c r="I298" s="3"/>
-    </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A299" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>506</v>
-      </c>
-      <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
-      <c r="E299" s="3"/>
-      <c r="F299" s="3"/>
-      <c r="G299" s="3"/>
-      <c r="H299" s="3"/>
-      <c r="I299" s="3"/>
-    </row>
-    <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="2" t="s">
-        <v>963</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>964</v>
-      </c>
-      <c r="C300" s="3"/>
-      <c r="D300" s="3"/>
-      <c r="E300" s="3"/>
-      <c r="F300" s="3"/>
-      <c r="G300" s="3"/>
-      <c r="H300" s="3"/>
-      <c r="I300" s="3"/>
-    </row>
-    <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="C301" s="3"/>
-      <c r="D301" s="3"/>
-      <c r="E301" s="3"/>
-      <c r="F301" s="3"/>
-      <c r="G301" s="3"/>
-      <c r="H301" s="3"/>
-      <c r="I301" s="3"/>
-    </row>
-    <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A302" s="2" t="s">
-        <v>966</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="C302" s="3"/>
-      <c r="D302" s="3"/>
-      <c r="E302" s="3"/>
-      <c r="F302" s="3"/>
-      <c r="G302" s="3"/>
-      <c r="H302" s="3"/>
-      <c r="I302" s="3"/>
-    </row>
-    <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A303" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="C303" s="3"/>
-      <c r="D303" s="3"/>
-      <c r="E303" s="3"/>
-      <c r="F303" s="3"/>
-      <c r="G303" s="3"/>
-      <c r="H303" s="3"/>
-      <c r="I303" s="3"/>
-    </row>
-    <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A304" s="2" t="s">
-        <v>968</v>
-      </c>
-      <c r="B304" s="4" t="s">
-        <v>969</v>
-      </c>
-      <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
-      <c r="E304" s="3"/>
-      <c r="F304" s="3"/>
-      <c r="G304" s="3"/>
-      <c r="H304" s="3"/>
-      <c r="I304" s="3"/>
-    </row>
-    <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A305" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="C305" s="3"/>
-      <c r="D305" s="3"/>
-      <c r="E305" s="3"/>
-      <c r="F305" s="3"/>
-      <c r="G305" s="3"/>
-      <c r="H305" s="3"/>
-      <c r="I305" s="3"/>
-    </row>
-    <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C306" s="3"/>
-      <c r="D306" s="3"/>
-      <c r="E306" s="3"/>
-      <c r="F306" s="3"/>
-      <c r="G306" s="3"/>
-      <c r="H306" s="3"/>
-      <c r="I306" s="3"/>
-    </row>
-    <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
-      <c r="E307" s="3"/>
-      <c r="F307" s="3"/>
-      <c r="G307" s="3"/>
-      <c r="H307" s="3"/>
-      <c r="I307" s="3"/>
-    </row>
-    <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
-      <c r="E308" s="3"/>
-      <c r="F308" s="3"/>
-      <c r="G308" s="3"/>
-      <c r="H308" s="3"/>
-      <c r="I308" s="3"/>
-    </row>
-    <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A309" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
-      <c r="E309" s="3"/>
-      <c r="F309" s="3"/>
-      <c r="G309" s="3"/>
-      <c r="H309" s="3"/>
-      <c r="I309" s="3"/>
-    </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
-      <c r="E310" s="3"/>
-      <c r="F310" s="3"/>
-      <c r="G310" s="3"/>
-      <c r="H310" s="3"/>
-      <c r="I310" s="3"/>
-    </row>
-    <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A311" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>974</v>
-      </c>
-      <c r="C311" s="3"/>
-      <c r="D311" s="3"/>
-      <c r="E311" s="3"/>
-      <c r="F311" s="3"/>
-      <c r="G311" s="3"/>
-      <c r="H311" s="3"/>
-      <c r="I311" s="3"/>
-    </row>
-    <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A312" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B312" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
-      <c r="E312" s="3"/>
-      <c r="F312" s="3"/>
-      <c r="G312" s="3"/>
-      <c r="H312" s="3"/>
-      <c r="I312" s="3"/>
-    </row>
-    <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
-      <c r="E313" s="3"/>
-      <c r="F313" s="3"/>
-      <c r="G313" s="3"/>
-      <c r="H313" s="3"/>
-      <c r="I313" s="3"/>
-    </row>
-    <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="2" t="s">
-        <v>976</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>977</v>
-      </c>
-      <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
-      <c r="E314" s="3"/>
-      <c r="F314" s="3"/>
-      <c r="G314" s="3"/>
-      <c r="H314" s="3"/>
-      <c r="I314" s="3"/>
-    </row>
-    <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="2" t="s">
-        <v>978</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
-      <c r="E315" s="3"/>
-      <c r="F315" s="3"/>
-      <c r="G315" s="3"/>
-      <c r="H315" s="3"/>
-      <c r="I315" s="3"/>
-    </row>
-    <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A316" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
-      <c r="E316" s="3"/>
-      <c r="F316" s="3"/>
-      <c r="G316" s="3"/>
-      <c r="H316" s="3"/>
-      <c r="I316" s="3"/>
-    </row>
-    <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="C317" s="3"/>
-      <c r="D317" s="3"/>
-      <c r="E317" s="3"/>
-      <c r="F317" s="3"/>
-      <c r="G317" s="3"/>
-      <c r="H317" s="3"/>
-      <c r="I317" s="3"/>
-    </row>
-    <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A318" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
-      <c r="E318" s="3"/>
-      <c r="F318" s="3"/>
-      <c r="G318" s="3"/>
-      <c r="H318" s="3"/>
-      <c r="I318" s="3"/>
-    </row>
-    <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A319" s="2" t="s">
-        <v>983</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>984</v>
-      </c>
-      <c r="C319" s="3"/>
-      <c r="D319" s="3"/>
-      <c r="E319" s="3"/>
-      <c r="F319" s="3"/>
-      <c r="G319" s="3"/>
-      <c r="H319" s="3"/>
-      <c r="I319" s="3"/>
-    </row>
-    <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A320" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>985</v>
-      </c>
-      <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
-      <c r="E320" s="3"/>
-      <c r="F320" s="3"/>
-      <c r="G320" s="3"/>
-      <c r="H320" s="3"/>
-      <c r="I320" s="3"/>
-    </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A321" s="2" t="s">
-        <v>986</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>987</v>
-      </c>
-      <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
-      <c r="E321" s="3"/>
-      <c r="F321" s="3"/>
-      <c r="G321" s="3"/>
-      <c r="H321" s="3"/>
-      <c r="I321" s="3"/>
-    </row>
-    <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A322" s="2" t="s">
-        <v>988</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="C322" s="3"/>
-      <c r="D322" s="3"/>
-      <c r="E322" s="3"/>
-      <c r="F322" s="3"/>
-      <c r="G322" s="3"/>
-      <c r="H322" s="3"/>
-      <c r="I322" s="3"/>
-    </row>
-    <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A323" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>541</v>
-      </c>
-      <c r="C323" s="3"/>
-      <c r="D323" s="3"/>
-      <c r="E323" s="3"/>
-      <c r="F323" s="3"/>
-      <c r="G323" s="3"/>
-      <c r="H323" s="3"/>
-      <c r="I323" s="3"/>
-    </row>
-    <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A324" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="B324" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="C324" s="3"/>
-      <c r="D324" s="3"/>
-      <c r="E324" s="3"/>
-      <c r="F324" s="3"/>
-      <c r="G324" s="3"/>
-      <c r="H324" s="3"/>
-      <c r="I324" s="3"/>
-    </row>
-    <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A325" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="C325" s="3"/>
-      <c r="D325" s="3"/>
-      <c r="E325" s="3"/>
-      <c r="F325" s="3"/>
-      <c r="G325" s="3"/>
-      <c r="H325" s="3"/>
-      <c r="I325" s="3"/>
-    </row>
-    <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="C326" s="3"/>
-      <c r="D326" s="3"/>
-      <c r="E326" s="3"/>
-      <c r="F326" s="3"/>
-      <c r="G326" s="3"/>
-      <c r="H326" s="3"/>
-      <c r="I326" s="3"/>
-    </row>
-    <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A327" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>994</v>
-      </c>
-      <c r="C327" s="3"/>
-      <c r="D327" s="3"/>
-      <c r="E327" s="3"/>
-      <c r="F327" s="3"/>
-      <c r="G327" s="3"/>
-      <c r="H327" s="3"/>
-      <c r="I327" s="3"/>
-    </row>
-    <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="C328" s="3"/>
-      <c r="D328" s="3"/>
-      <c r="E328" s="3"/>
-      <c r="F328" s="3"/>
-      <c r="G328" s="3"/>
-      <c r="H328" s="3"/>
-      <c r="I328" s="3"/>
-    </row>
-    <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>997</v>
-      </c>
-      <c r="C329" s="3"/>
-      <c r="D329" s="3"/>
-      <c r="E329" s="3"/>
-      <c r="F329" s="3"/>
-      <c r="G329" s="3"/>
-      <c r="H329" s="3"/>
-      <c r="I329" s="3"/>
-    </row>
-    <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="C330" s="3"/>
-      <c r="D330" s="3"/>
-      <c r="E330" s="3"/>
-      <c r="F330" s="3"/>
-      <c r="G330" s="3"/>
-      <c r="H330" s="3"/>
-      <c r="I330" s="3"/>
-    </row>
-    <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="2" t="s">
-        <v>552</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>555</v>
-      </c>
-      <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
-      <c r="E331" s="3"/>
-      <c r="F331" s="3"/>
-      <c r="G331" s="3"/>
-      <c r="H331" s="3"/>
-      <c r="I331" s="3"/>
-    </row>
-    <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="2" t="s">
-        <v>545</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>548</v>
-      </c>
-      <c r="C332" s="3"/>
-      <c r="D332" s="3"/>
-      <c r="E332" s="3"/>
-      <c r="F332" s="3"/>
-      <c r="G332" s="3"/>
-      <c r="H332" s="3"/>
-      <c r="I332" s="3"/>
-    </row>
-    <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="C333" s="3"/>
-      <c r="D333" s="3"/>
-      <c r="E333" s="3"/>
-      <c r="F333" s="3"/>
-      <c r="G333" s="3"/>
-      <c r="H333" s="3"/>
-      <c r="I333" s="3"/>
-    </row>
-    <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="2" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C334" s="3"/>
-      <c r="D334" s="3"/>
-      <c r="E334" s="3"/>
-      <c r="F334" s="3"/>
-      <c r="G334" s="3"/>
-      <c r="H334" s="3"/>
-      <c r="I334" s="3"/>
-    </row>
-    <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="2" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C335" s="3"/>
-      <c r="D335" s="3"/>
-      <c r="E335" s="3"/>
-      <c r="F335" s="3"/>
-      <c r="G335" s="3"/>
-      <c r="H335" s="3"/>
-      <c r="I335" s="3"/>
-    </row>
-    <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A336" s="2" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C336" s="3"/>
-      <c r="D336" s="3"/>
-      <c r="E336" s="3"/>
-      <c r="F336" s="3"/>
-      <c r="G336" s="3"/>
-      <c r="H336" s="3"/>
-      <c r="I336" s="3"/>
-    </row>
-    <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C337" s="3"/>
-      <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
-      <c r="F337" s="3"/>
-      <c r="G337" s="3"/>
-      <c r="H337" s="3"/>
-      <c r="I337" s="3"/>
-    </row>
-    <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C338" s="3"/>
-      <c r="D338" s="3"/>
-      <c r="E338" s="3"/>
-      <c r="F338" s="3"/>
-      <c r="G338" s="3"/>
-      <c r="H338" s="3"/>
-      <c r="I338" s="3"/>
-    </row>
-    <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A339" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B339" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C339" s="3"/>
-      <c r="D339" s="3"/>
-      <c r="E339" s="3"/>
-      <c r="F339" s="3"/>
-      <c r="G339" s="3"/>
-      <c r="H339" s="3"/>
-      <c r="I339" s="3"/>
-    </row>
-    <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="2" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B340" s="4" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C340" s="3"/>
-      <c r="D340" s="3"/>
-      <c r="E340" s="3"/>
-      <c r="F340" s="3"/>
-      <c r="G340" s="3"/>
-      <c r="H340" s="3"/>
-      <c r="I340" s="3"/>
-    </row>
-    <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
-      <c r="F341" s="3"/>
-      <c r="G341" s="3"/>
-      <c r="H341" s="3"/>
-      <c r="I341" s="3"/>
-    </row>
-    <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
-      <c r="E342" s="3"/>
-      <c r="F342" s="3"/>
-      <c r="G342" s="3"/>
-      <c r="H342" s="3"/>
-      <c r="I342" s="3"/>
-    </row>
-    <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="2" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
-      <c r="E343" s="3"/>
-      <c r="F343" s="3"/>
-      <c r="G343" s="3"/>
-      <c r="H343" s="3"/>
-      <c r="I343" s="3"/>
-    </row>
-    <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="2" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C344" s="3"/>
-      <c r="D344" s="3"/>
-      <c r="E344" s="3"/>
-      <c r="F344" s="3"/>
-      <c r="G344" s="3"/>
-      <c r="H344" s="3"/>
-      <c r="I344" s="3"/>
-    </row>
-    <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="2" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C345" s="3"/>
-      <c r="D345" s="3"/>
-      <c r="E345" s="3"/>
-      <c r="F345" s="3"/>
-      <c r="G345" s="3"/>
-      <c r="H345" s="3"/>
-      <c r="I345" s="3"/>
-    </row>
-    <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
-      <c r="E346" s="3"/>
-      <c r="F346" s="3"/>
-      <c r="G346" s="3"/>
-      <c r="H346" s="3"/>
-      <c r="I346" s="3"/>
-    </row>
-    <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A347" s="2" t="s">
-        <v>1023</v>
-      </c>
-      <c r="B347" s="4" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
-      <c r="E347" s="3"/>
-      <c r="F347" s="3"/>
-      <c r="G347" s="3"/>
-      <c r="H347" s="3"/>
-      <c r="I347" s="3"/>
-    </row>
-    <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="2" t="s">
-        <v>1025</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C348" s="3"/>
-      <c r="D348" s="3"/>
-      <c r="E348" s="3"/>
-      <c r="F348" s="3"/>
-      <c r="G348" s="3"/>
-      <c r="H348" s="3"/>
-      <c r="I348" s="3"/>
-    </row>
-    <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="2" t="s">
-        <v>1027</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C349" s="3"/>
-      <c r="D349" s="3"/>
-      <c r="E349" s="3"/>
-      <c r="F349" s="3"/>
-      <c r="G349" s="3"/>
-      <c r="H349" s="3"/>
-      <c r="I349" s="3"/>
-    </row>
-    <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A350" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B350" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C350" s="3"/>
-      <c r="D350" s="3"/>
-      <c r="E350" s="3"/>
-      <c r="F350" s="3"/>
-      <c r="G350" s="3"/>
-      <c r="H350" s="3"/>
-      <c r="I350" s="3"/>
-    </row>
-    <row r="351" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A351" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>597</v>
-      </c>
-      <c r="C351" s="3"/>
-      <c r="D351" s="3"/>
-      <c r="E351" s="3"/>
-      <c r="F351" s="3"/>
-      <c r="G351" s="3"/>
-      <c r="H351" s="3"/>
-      <c r="I351" s="3"/>
-    </row>
-    <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C352" s="3"/>
-      <c r="D352" s="3"/>
-      <c r="E352" s="3"/>
-      <c r="F352" s="3"/>
-      <c r="G352" s="3"/>
-      <c r="H352" s="3"/>
-      <c r="I352" s="3"/>
-    </row>
-    <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="C353" s="3"/>
-      <c r="D353" s="3"/>
-      <c r="E353" s="3"/>
-      <c r="F353" s="3"/>
-      <c r="G353" s="3"/>
-      <c r="H353" s="3"/>
-      <c r="I353" s="3"/>
-    </row>
-    <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A354" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="C354" s="3"/>
-      <c r="D354" s="3"/>
-      <c r="E354" s="3"/>
-      <c r="F354" s="3"/>
-      <c r="G354" s="3"/>
-      <c r="H354" s="3"/>
-      <c r="I354" s="3"/>
-    </row>
-    <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A355" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C355" s="3"/>
-      <c r="D355" s="3"/>
-      <c r="E355" s="3"/>
-      <c r="F355" s="3"/>
-      <c r="G355" s="3"/>
-      <c r="H355" s="3"/>
-      <c r="I355" s="3"/>
-    </row>
-    <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="C356" s="3"/>
-      <c r="D356" s="3"/>
-      <c r="E356" s="3"/>
-      <c r="F356" s="3"/>
-      <c r="G356" s="3"/>
-      <c r="H356" s="3"/>
-      <c r="I356" s="3"/>
-    </row>
-    <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="2" t="s">
-        <v>608</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C357" s="3"/>
-      <c r="D357" s="3"/>
-      <c r="E357" s="3"/>
-      <c r="F357" s="3"/>
-      <c r="G357" s="3"/>
-      <c r="H357" s="3"/>
-      <c r="I357" s="3"/>
-    </row>
-    <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A358" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="C358" s="3"/>
-      <c r="D358" s="3"/>
-      <c r="E358" s="3"/>
-      <c r="F358" s="3"/>
-      <c r="G358" s="3"/>
-      <c r="H358" s="3"/>
-      <c r="I358" s="3"/>
-    </row>
-    <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="C359" s="3"/>
-      <c r="D359" s="3"/>
-      <c r="E359" s="3"/>
-      <c r="F359" s="3"/>
-      <c r="G359" s="3"/>
-      <c r="H359" s="3"/>
-      <c r="I359" s="3"/>
-    </row>
-    <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="C360" s="3"/>
-      <c r="D360" s="3"/>
-      <c r="E360" s="3"/>
-      <c r="F360" s="3"/>
-      <c r="G360" s="3"/>
-      <c r="H360" s="3"/>
-      <c r="I360" s="3"/>
-    </row>
-    <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A361" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C361" s="3"/>
-      <c r="D361" s="3"/>
-      <c r="E361" s="3"/>
-      <c r="F361" s="3"/>
-      <c r="G361" s="3"/>
-      <c r="H361" s="3"/>
-      <c r="I361" s="3"/>
-    </row>
-    <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="2" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C362" s="3"/>
-      <c r="D362" s="3"/>
-      <c r="E362" s="3"/>
-      <c r="F362" s="3"/>
-      <c r="G362" s="3"/>
-      <c r="H362" s="3"/>
-      <c r="I362" s="3"/>
-    </row>
-    <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="2" t="s">
-        <v>1041</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>1042</v>
-      </c>
-      <c r="C363" s="3"/>
-      <c r="D363" s="3"/>
-      <c r="E363" s="3"/>
-      <c r="F363" s="3"/>
-      <c r="G363" s="3"/>
-      <c r="H363" s="3"/>
-      <c r="I363" s="3"/>
-    </row>
-    <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A364" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>1044</v>
-      </c>
-      <c r="C364" s="3"/>
-      <c r="D364" s="3"/>
-      <c r="E364" s="3"/>
-      <c r="F364" s="3"/>
-      <c r="G364" s="3"/>
-      <c r="H364" s="3"/>
-      <c r="I364" s="3"/>
-    </row>
-    <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A365" s="2" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>1046</v>
-      </c>
-      <c r="C365" s="3"/>
-      <c r="D365" s="3"/>
-      <c r="E365" s="3"/>
-      <c r="F365" s="3"/>
-      <c r="G365" s="3"/>
-      <c r="H365" s="3"/>
-      <c r="I365" s="3"/>
-    </row>
-    <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="2" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B366" s="4" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C366" s="3"/>
-      <c r="D366" s="3"/>
-      <c r="E366" s="3"/>
-      <c r="F366" s="3"/>
-      <c r="G366" s="3"/>
-      <c r="H366" s="3"/>
-      <c r="I366" s="3"/>
-    </row>
-    <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C367" s="3"/>
-      <c r="D367" s="3"/>
-      <c r="E367" s="3"/>
-      <c r="F367" s="3"/>
-      <c r="G367" s="3"/>
-      <c r="H367" s="3"/>
-      <c r="I367" s="3"/>
-    </row>
-    <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="2" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>1050</v>
-      </c>
-      <c r="C368" s="3"/>
-      <c r="D368" s="3"/>
-      <c r="E368" s="3"/>
-      <c r="F368" s="3"/>
-      <c r="G368" s="3"/>
-      <c r="H368" s="3"/>
-      <c r="I368" s="3"/>
-    </row>
-    <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>1051</v>
-      </c>
-      <c r="C369" s="3"/>
-      <c r="D369" s="3"/>
-      <c r="E369" s="3"/>
-      <c r="F369" s="3"/>
-      <c r="G369" s="3"/>
-      <c r="H369" s="3"/>
-      <c r="I369" s="3"/>
-    </row>
-    <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C370" s="3"/>
-      <c r="D370" s="3"/>
-      <c r="E370" s="3"/>
-      <c r="F370" s="3"/>
-      <c r="G370" s="3"/>
-      <c r="H370" s="3"/>
-      <c r="I370" s="3"/>
-    </row>
-    <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A371" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C371" s="3"/>
-      <c r="D371" s="3"/>
-      <c r="E371" s="3"/>
-      <c r="F371" s="3"/>
-      <c r="G371" s="3"/>
-      <c r="H371" s="3"/>
-      <c r="I371" s="3"/>
-    </row>
-    <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="C372" s="3"/>
-      <c r="D372" s="3"/>
-      <c r="E372" s="3"/>
-      <c r="F372" s="3"/>
-      <c r="G372" s="3"/>
-      <c r="H372" s="3"/>
-      <c r="I372" s="3"/>
-    </row>
-    <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C373" s="3"/>
-      <c r="D373" s="3"/>
-      <c r="E373" s="3"/>
-      <c r="F373" s="3"/>
-      <c r="G373" s="3"/>
-      <c r="H373" s="3"/>
-      <c r="I373" s="3"/>
-    </row>
-    <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A374" s="2" t="s">
-        <v>1056</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C374" s="3"/>
-      <c r="D374" s="3"/>
-      <c r="E374" s="3"/>
-      <c r="F374" s="3"/>
-      <c r="G374" s="3"/>
-      <c r="H374" s="3"/>
-      <c r="I374" s="3"/>
-    </row>
-    <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C375" s="3"/>
-      <c r="D375" s="3"/>
-      <c r="E375" s="3"/>
-      <c r="F375" s="3"/>
-      <c r="G375" s="3"/>
-      <c r="H375" s="3"/>
-      <c r="I375" s="3"/>
-    </row>
-    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>1058</v>
-      </c>
-      <c r="C376" s="3"/>
-      <c r="D376" s="3"/>
-      <c r="E376" s="3"/>
-      <c r="F376" s="3"/>
-      <c r="G376" s="3"/>
-      <c r="H376" s="3"/>
-      <c r="I376" s="3"/>
-    </row>
-    <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="2" t="s">
-        <v>1059</v>
-      </c>
-      <c r="B377" s="4" t="s">
-        <v>1060</v>
-      </c>
-      <c r="C377" s="3"/>
-      <c r="D377" s="3"/>
-      <c r="E377" s="3"/>
-      <c r="F377" s="3"/>
-      <c r="G377" s="3"/>
-      <c r="H377" s="3"/>
-      <c r="I377" s="3"/>
-    </row>
-    <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="2" t="s">
-        <v>1061</v>
-      </c>
-      <c r="B378" s="4" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C378" s="3"/>
-      <c r="D378" s="3"/>
-      <c r="E378" s="3"/>
-      <c r="F378" s="3"/>
-      <c r="G378" s="3"/>
-      <c r="H378" s="3"/>
-      <c r="I378" s="3"/>
-    </row>
-    <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="2" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B379" s="4" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C379" s="3"/>
-      <c r="D379" s="3"/>
-      <c r="E379" s="3"/>
-      <c r="F379" s="3"/>
-      <c r="G379" s="3"/>
-      <c r="H379" s="3"/>
-      <c r="I379" s="3"/>
-    </row>
-    <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A380" s="2" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B380" s="4" t="s">
-        <v>1066</v>
-      </c>
-      <c r="C380" s="3"/>
-      <c r="D380" s="3"/>
-      <c r="E380" s="3"/>
-      <c r="F380" s="3"/>
-      <c r="G380" s="3"/>
-      <c r="H380" s="3"/>
-      <c r="I380" s="3"/>
-    </row>
-    <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="2" t="s">
-        <v>582</v>
-      </c>
-      <c r="B381" s="4" t="s">
-        <v>583</v>
-      </c>
-      <c r="C381" s="3"/>
-      <c r="D381" s="3"/>
-      <c r="E381" s="3"/>
-      <c r="F381" s="3"/>
-      <c r="G381" s="3"/>
-      <c r="H381" s="3"/>
-      <c r="I381" s="3"/>
-    </row>
-    <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B382" s="6" t="s">
-        <v>1068</v>
-      </c>
-      <c r="C382" s="3"/>
-      <c r="D382" s="3"/>
-      <c r="E382" s="3"/>
-      <c r="F382" s="3"/>
-      <c r="G382" s="3"/>
-      <c r="H382" s="3"/>
-      <c r="I382" s="3"/>
-    </row>
-    <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A383" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="B383" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="C383" s="3"/>
-      <c r="D383" s="3"/>
-      <c r="E383" s="3"/>
-      <c r="F383" s="3"/>
-      <c r="G383" s="3"/>
-      <c r="H383" s="3"/>
-      <c r="I383" s="3"/>
-    </row>
-    <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A384" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="B384" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="C384" s="3"/>
-      <c r="D384" s="3"/>
-      <c r="E384" s="3"/>
-      <c r="F384" s="3"/>
-      <c r="G384" s="3"/>
-      <c r="H384" s="3"/>
-      <c r="I384" s="3"/>
-    </row>
-    <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A385" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="B385" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="C385" s="3"/>
-      <c r="D385" s="3"/>
-      <c r="E385" s="3"/>
-      <c r="F385" s="3"/>
-      <c r="G385" s="3"/>
-      <c r="H385" s="3"/>
-      <c r="I385" s="3"/>
-    </row>
-    <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="B386" s="2" t="s">
-        <v>634</v>
-      </c>
-      <c r="C386" s="3"/>
-      <c r="D386" s="3"/>
-      <c r="E386" s="3"/>
-      <c r="F386" s="3"/>
-      <c r="G386" s="3"/>
-      <c r="H386" s="3"/>
-      <c r="I386" s="3"/>
-    </row>
-    <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="C387" s="3"/>
-      <c r="D387" s="3"/>
-      <c r="E387" s="3"/>
-      <c r="F387" s="3"/>
-      <c r="G387" s="3"/>
-      <c r="H387" s="3"/>
-      <c r="I387" s="3"/>
-    </row>
-    <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="2" t="s">
-        <v>1072</v>
-      </c>
-      <c r="B388" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="C388" s="3"/>
-      <c r="D388" s="3"/>
-      <c r="E388" s="3"/>
-      <c r="F388" s="3"/>
-      <c r="G388" s="3"/>
-      <c r="H388" s="3"/>
-      <c r="I388" s="3"/>
-    </row>
-    <row r="389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="B389" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="C389" s="3"/>
-      <c r="D389" s="3"/>
-      <c r="E389" s="3"/>
-      <c r="F389" s="3"/>
-      <c r="G389" s="3"/>
-      <c r="H389" s="3"/>
-      <c r="I389" s="3"/>
-    </row>
-    <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C390" s="3"/>
-      <c r="D390" s="3"/>
-      <c r="E390" s="3"/>
-      <c r="F390" s="3"/>
-      <c r="G390" s="3"/>
-      <c r="H390" s="3"/>
-      <c r="I390" s="3"/>
-    </row>
-    <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A391" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C391" s="3"/>
-      <c r="D391" s="3"/>
-      <c r="E391" s="3"/>
-      <c r="F391" s="3"/>
-      <c r="G391" s="3"/>
-      <c r="H391" s="3"/>
-      <c r="I391" s="3"/>
-    </row>
-    <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C392" s="3"/>
-      <c r="D392" s="3"/>
-      <c r="E392" s="3"/>
-      <c r="F392" s="3"/>
-      <c r="G392" s="3"/>
-      <c r="H392" s="3"/>
-      <c r="I392" s="3"/>
-    </row>
-    <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A393" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>679</v>
-      </c>
-      <c r="C393" s="3"/>
-      <c r="D393" s="3"/>
-      <c r="E393" s="3"/>
-      <c r="F393" s="3"/>
-      <c r="G393" s="3"/>
-      <c r="H393" s="3"/>
-      <c r="I393" s="3"/>
-    </row>
-    <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>1082</v>
-      </c>
-      <c r="C394" s="3"/>
-      <c r="D394" s="3"/>
-      <c r="E394" s="3"/>
-      <c r="F394" s="3"/>
-      <c r="G394" s="3"/>
-      <c r="H394" s="3"/>
-      <c r="I394" s="3"/>
-    </row>
-    <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A395" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>1084</v>
-      </c>
-      <c r="C395" s="3"/>
-      <c r="D395" s="3"/>
-      <c r="E395" s="3"/>
-      <c r="F395" s="3"/>
-      <c r="G395" s="3"/>
-      <c r="H395" s="3"/>
-      <c r="I395" s="3"/>
-    </row>
-    <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A396" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>1086</v>
-      </c>
-      <c r="C396" s="3"/>
-      <c r="D396" s="3"/>
-      <c r="E396" s="3"/>
-      <c r="F396" s="3"/>
-      <c r="G396" s="3"/>
-      <c r="H396" s="3"/>
-      <c r="I396" s="3"/>
-    </row>
-    <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="2" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B397" s="2" t="s">
-        <v>1088</v>
-      </c>
-      <c r="C397" s="3"/>
-      <c r="D397" s="3"/>
-      <c r="E397" s="3"/>
-      <c r="F397" s="3"/>
-      <c r="G397" s="3"/>
-      <c r="H397" s="3"/>
-      <c r="I397" s="3"/>
-    </row>
-    <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="2" t="s">
-        <v>1089</v>
-      </c>
-      <c r="B398" s="2" t="s">
-        <v>1090</v>
-      </c>
-      <c r="C398" s="3"/>
-      <c r="D398" s="3"/>
-      <c r="E398" s="3"/>
-      <c r="F398" s="3"/>
-      <c r="G398" s="3"/>
-      <c r="H398" s="3"/>
-      <c r="I398" s="3"/>
-    </row>
-    <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A399" s="2" t="s">
-        <v>681</v>
-      </c>
-      <c r="B399" s="4" t="s">
-        <v>682</v>
-      </c>
-      <c r="C399" s="3"/>
-      <c r="D399" s="3"/>
-      <c r="E399" s="3"/>
-      <c r="F399" s="3"/>
-      <c r="G399" s="3"/>
-      <c r="H399" s="3"/>
-      <c r="I399" s="3"/>
-    </row>
-    <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A400" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C400" s="3"/>
-      <c r="D400" s="3"/>
-      <c r="E400" s="3"/>
-      <c r="F400" s="3"/>
-      <c r="G400" s="3"/>
-      <c r="H400" s="3"/>
-      <c r="I400" s="3"/>
-    </row>
-    <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A401" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>1092</v>
-      </c>
-      <c r="C401" s="3"/>
-      <c r="D401" s="3"/>
-      <c r="E401" s="3"/>
-      <c r="F401" s="3"/>
-      <c r="G401" s="3"/>
-      <c r="H401" s="3"/>
-      <c r="I401" s="3"/>
-    </row>
-    <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A402" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="B402" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="C402" s="3"/>
-      <c r="D402" s="3"/>
-      <c r="E402" s="3"/>
-      <c r="F402" s="3"/>
-      <c r="G402" s="3"/>
-      <c r="H402" s="3"/>
-      <c r="I402" s="3"/>
-    </row>
-    <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A403" s="2" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B403" s="2" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C403" s="3"/>
-      <c r="D403" s="3"/>
-      <c r="E403" s="3"/>
-      <c r="F403" s="3"/>
-      <c r="G403" s="3"/>
-      <c r="H403" s="3"/>
-      <c r="I403" s="3"/>
-    </row>
-    <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="2" t="s">
-        <v>1095</v>
-      </c>
-      <c r="B404" s="2" t="s">
-        <v>1096</v>
-      </c>
-      <c r="C404" s="3"/>
-      <c r="D404" s="3"/>
-      <c r="E404" s="3"/>
-      <c r="F404" s="3"/>
-      <c r="G404" s="3"/>
-      <c r="H404" s="3"/>
-      <c r="I404" s="3"/>
-    </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="2" t="s">
-        <v>701</v>
-      </c>
-      <c r="B405" s="2" t="s">
-        <v>702</v>
-      </c>
-      <c r="C405" s="3"/>
-      <c r="D405" s="3"/>
-      <c r="E405" s="3"/>
-      <c r="F405" s="3"/>
-      <c r="G405" s="3"/>
-      <c r="H405" s="3"/>
-      <c r="I405" s="3"/>
-    </row>
-    <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A406" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="B406" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="C406" s="3"/>
-      <c r="D406" s="3"/>
-      <c r="E406" s="3"/>
-      <c r="F406" s="3"/>
-      <c r="G406" s="3"/>
-      <c r="H406" s="3"/>
-      <c r="I406" s="3"/>
-    </row>
-    <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="2" t="s">
-        <v>694</v>
-      </c>
-      <c r="B407" s="2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C407" s="3"/>
-      <c r="D407" s="3"/>
-      <c r="E407" s="3"/>
-      <c r="F407" s="3"/>
-      <c r="G407" s="3"/>
-      <c r="H407" s="3"/>
-      <c r="I407" s="3"/>
-    </row>
-    <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A408" s="2" t="s">
-        <v>1098</v>
-      </c>
-      <c r="B408" s="2" t="s">
-        <v>1099</v>
-      </c>
-      <c r="C408" s="3"/>
-      <c r="D408" s="3"/>
-      <c r="E408" s="3"/>
-      <c r="F408" s="3"/>
-      <c r="G408" s="3"/>
-      <c r="H408" s="3"/>
-      <c r="I408" s="3"/>
-    </row>
-    <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A409" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="B409" s="2" t="s">
-        <v>1100</v>
-      </c>
-      <c r="C409" s="3"/>
-      <c r="D409" s="3"/>
-      <c r="E409" s="3"/>
-      <c r="F409" s="3"/>
-      <c r="G409" s="3"/>
-      <c r="H409" s="3"/>
-      <c r="I409" s="3"/>
-    </row>
-    <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A410" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="B410" s="2" t="s">
-        <v>1101</v>
-      </c>
-      <c r="C410" s="3"/>
-      <c r="D410" s="3"/>
-      <c r="E410" s="3"/>
-      <c r="F410" s="3"/>
-      <c r="G410" s="3"/>
-      <c r="H410" s="3"/>
-      <c r="I410" s="3"/>
-    </row>
-    <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A411" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="B411" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="C411" s="3"/>
-      <c r="D411" s="3"/>
-      <c r="E411" s="3"/>
-      <c r="F411" s="3"/>
-      <c r="G411" s="3"/>
-      <c r="H411" s="3"/>
-      <c r="I411" s="3"/>
-    </row>
-    <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A412" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="B412" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="C412" s="3"/>
-      <c r="D412" s="3"/>
-      <c r="E412" s="3"/>
-      <c r="F412" s="3"/>
-      <c r="G412" s="3"/>
-      <c r="H412" s="3"/>
-      <c r="I412" s="3"/>
-    </row>
-    <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="B413" s="2" t="s">
-        <v>1103</v>
-      </c>
-      <c r="C413" s="3"/>
-      <c r="D413" s="3"/>
-      <c r="E413" s="3"/>
-      <c r="F413" s="3"/>
-      <c r="G413" s="3"/>
-      <c r="H413" s="3"/>
-      <c r="I413" s="3"/>
-    </row>
-    <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="2" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B414" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="C414" s="3"/>
-      <c r="D414" s="3"/>
-      <c r="E414" s="3"/>
-      <c r="F414" s="3"/>
-      <c r="G414" s="3"/>
-      <c r="H414" s="3"/>
-      <c r="I414" s="3"/>
-    </row>
-    <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="2" t="s">
-        <v>1106</v>
-      </c>
-      <c r="B415" s="2" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C415" s="3"/>
-      <c r="D415" s="3"/>
-      <c r="E415" s="3"/>
-      <c r="F415" s="3"/>
-      <c r="G415" s="3"/>
-      <c r="H415" s="3"/>
-      <c r="I415" s="3"/>
-    </row>
-    <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A416" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="B416" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="C416" s="3"/>
-      <c r="D416" s="3"/>
-      <c r="E416" s="3"/>
-      <c r="F416" s="3"/>
-      <c r="G416" s="3"/>
-      <c r="H416" s="3"/>
-      <c r="I416" s="3"/>
-    </row>
-    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A417" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="B417" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C417" s="3"/>
-      <c r="D417" s="3"/>
-      <c r="E417" s="3"/>
-      <c r="F417" s="3"/>
-      <c r="G417" s="3"/>
-      <c r="H417" s="3"/>
-      <c r="I417" s="3"/>
-    </row>
-    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A418" s="2" t="s">
-        <v>714</v>
-      </c>
-      <c r="B418" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C418" s="3"/>
-      <c r="D418" s="3"/>
-      <c r="E418" s="3"/>
-      <c r="F418" s="3"/>
-      <c r="G418" s="3"/>
-      <c r="H418" s="3"/>
-      <c r="I418" s="3"/>
-    </row>
-    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A419" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="B419" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C419" s="3"/>
-      <c r="D419" s="3"/>
-      <c r="E419" s="3"/>
-      <c r="F419" s="3"/>
-      <c r="G419" s="3"/>
-      <c r="H419" s="3"/>
-      <c r="I419" s="3"/>
-    </row>
-    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="B420" s="2" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C420" s="3"/>
-      <c r="D420" s="3"/>
-      <c r="E420" s="3"/>
-      <c r="F420" s="3"/>
-      <c r="G420" s="3"/>
-      <c r="H420" s="3"/>
-      <c r="I420" s="3"/>
-    </row>
-    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B421" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="C421" s="3"/>
-      <c r="D421" s="3"/>
-      <c r="E421" s="3"/>
-      <c r="F421" s="3"/>
-      <c r="G421" s="3"/>
-      <c r="H421" s="3"/>
-      <c r="I421" s="3"/>
-    </row>
-    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A422" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="B422" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C422" s="3"/>
-      <c r="D422" s="3"/>
-      <c r="E422" s="3"/>
-      <c r="F422" s="3"/>
-      <c r="G422" s="3"/>
-      <c r="H422" s="3"/>
-      <c r="I422" s="3"/>
-    </row>
-    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A423" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="B423" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="C423" s="3"/>
-      <c r="D423" s="3"/>
-      <c r="E423" s="3"/>
-      <c r="F423" s="3"/>
-      <c r="G423" s="3"/>
-      <c r="H423" s="3"/>
-      <c r="I423" s="3"/>
-    </row>
-    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="B424" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="C424" s="3"/>
-      <c r="D424" s="3"/>
-      <c r="E424" s="3"/>
-      <c r="F424" s="3"/>
-      <c r="G424" s="3"/>
-      <c r="H424" s="3"/>
-      <c r="I424" s="3"/>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="B425" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C425" s="3"/>
-      <c r="D425" s="3"/>
-      <c r="E425" s="3"/>
-      <c r="F425" s="3"/>
-      <c r="G425" s="3"/>
-      <c r="H425" s="3"/>
-      <c r="I425" s="3"/>
-    </row>
-    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A426" s="2" t="s">
-        <v>1116</v>
-      </c>
-      <c r="B426" s="2" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C426" s="3"/>
-      <c r="D426" s="3"/>
-      <c r="E426" s="3"/>
-      <c r="F426" s="3"/>
-      <c r="G426" s="3"/>
-      <c r="H426" s="3"/>
-      <c r="I426" s="3"/>
-    </row>
-    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B427" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C427" s="3"/>
-      <c r="D427" s="3"/>
-      <c r="E427" s="3"/>
-      <c r="F427" s="3"/>
-      <c r="G427" s="3"/>
-      <c r="H427" s="3"/>
-      <c r="I427" s="3"/>
-    </row>
-    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="B428" s="2" t="s">
-        <v>624</v>
-      </c>
-      <c r="C428" s="3"/>
-      <c r="D428" s="3"/>
-      <c r="E428" s="3"/>
-      <c r="F428" s="3"/>
-      <c r="G428" s="3"/>
-      <c r="H428" s="3"/>
-      <c r="I428" s="3"/>
-    </row>
-    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="2" t="s">
-        <v>1118</v>
-      </c>
-      <c r="B429" s="2" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C429" s="3"/>
-      <c r="D429" s="3"/>
-      <c r="E429" s="3"/>
-      <c r="F429" s="3"/>
-      <c r="G429" s="3"/>
-      <c r="H429" s="3"/>
-      <c r="I429" s="3"/>
-    </row>
-    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A430" s="2" t="s">
-        <v>1120</v>
-      </c>
-      <c r="B430" s="2" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C430" s="3"/>
-      <c r="D430" s="3"/>
-      <c r="E430" s="3"/>
-      <c r="F430" s="3"/>
-      <c r="G430" s="3"/>
-      <c r="H430" s="3"/>
-      <c r="I430" s="3"/>
-    </row>
-    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B431" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="C431" s="3"/>
-      <c r="D431" s="3"/>
-      <c r="E431" s="3"/>
-      <c r="F431" s="3"/>
-      <c r="G431" s="3"/>
-      <c r="H431" s="3"/>
-      <c r="I431" s="3"/>
-    </row>
-    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="2" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B432" s="2" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C432" s="3"/>
-      <c r="D432" s="3"/>
-      <c r="E432" s="3"/>
-      <c r="F432" s="3"/>
-      <c r="G432" s="3"/>
-      <c r="H432" s="3"/>
-      <c r="I432" s="3"/>
-    </row>
-    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B433" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="C433" s="3"/>
-      <c r="D433" s="3"/>
-      <c r="E433" s="3"/>
-      <c r="F433" s="3"/>
-      <c r="G433" s="3"/>
-      <c r="H433" s="3"/>
-      <c r="I433" s="3"/>
-    </row>
-    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="2" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B434" s="2" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C434" s="3"/>
-      <c r="D434" s="3"/>
-      <c r="E434" s="3"/>
-      <c r="F434" s="3"/>
-      <c r="G434" s="3"/>
-      <c r="H434" s="3"/>
-      <c r="I434" s="3"/>
-    </row>
-    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A435" s="2" t="s">
-        <v>1126</v>
-      </c>
-      <c r="B435" s="2" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C435" s="3"/>
-      <c r="D435" s="3"/>
-      <c r="E435" s="3"/>
-      <c r="F435" s="3"/>
-      <c r="G435" s="3"/>
-      <c r="H435" s="3"/>
-      <c r="I435" s="3"/>
-    </row>
-    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="2" t="s">
-        <v>1128</v>
-      </c>
-      <c r="B436" s="2" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C436" s="3"/>
-      <c r="D436" s="3"/>
-      <c r="E436" s="3"/>
-      <c r="F436" s="3"/>
-      <c r="G436" s="3"/>
-      <c r="H436" s="3"/>
-      <c r="I436" s="3"/>
-    </row>
-    <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="2" t="s">
-        <v>1130</v>
-      </c>
-      <c r="B437" s="4" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C437" s="3"/>
-      <c r="D437" s="3"/>
-      <c r="E437" s="3"/>
-      <c r="F437" s="3"/>
-      <c r="G437" s="3"/>
-      <c r="H437" s="3"/>
-      <c r="I437" s="3"/>
-    </row>
-    <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B438" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C438" s="3"/>
-      <c r="D438" s="3"/>
-      <c r="E438" s="3"/>
-      <c r="F438" s="3"/>
-      <c r="G438" s="3"/>
-      <c r="H438" s="3"/>
-      <c r="I438" s="3"/>
-    </row>
-    <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B439" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C439" s="3"/>
-      <c r="D439" s="3"/>
-      <c r="E439" s="3"/>
-      <c r="F439" s="3"/>
-      <c r="G439" s="3"/>
-      <c r="H439" s="3"/>
-      <c r="I439" s="3"/>
-    </row>
-    <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="2" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B440" s="4" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C440" s="3"/>
-      <c r="D440" s="3"/>
-      <c r="E440" s="3"/>
-      <c r="F440" s="3"/>
-      <c r="G440" s="3"/>
-      <c r="H440" s="3"/>
-      <c r="I440" s="3"/>
-    </row>
-    <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B441" s="2" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C441" s="3"/>
-      <c r="D441" s="3"/>
-      <c r="E441" s="3"/>
-      <c r="F441" s="3"/>
-      <c r="G441" s="3"/>
-      <c r="H441" s="3"/>
-      <c r="I441" s="3"/>
-    </row>
-    <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="2" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B442" s="4" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C442" s="3"/>
-      <c r="D442" s="3"/>
-      <c r="E442" s="3"/>
-      <c r="F442" s="3"/>
-      <c r="G442" s="3"/>
-      <c r="H442" s="3"/>
-      <c r="I442" s="3"/>
-    </row>
-    <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="2" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B443" s="2" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C443" s="3"/>
-      <c r="D443" s="3"/>
-      <c r="E443" s="3"/>
-      <c r="F443" s="3"/>
-      <c r="G443" s="3"/>
-      <c r="H443" s="3"/>
-      <c r="I443" s="3"/>
-    </row>
-    <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A444" s="2" t="s">
-        <v>1139</v>
-      </c>
-      <c r="B444" s="4" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C444" s="3"/>
-      <c r="D444" s="3"/>
-      <c r="E444" s="3"/>
-      <c r="F444" s="3"/>
-      <c r="G444" s="3"/>
-      <c r="H444" s="3"/>
-      <c r="I444" s="3"/>
-    </row>
-    <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B445" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C445" s="3"/>
-      <c r="D445" s="3"/>
-      <c r="E445" s="3"/>
-      <c r="F445" s="3"/>
-      <c r="G445" s="3"/>
-      <c r="H445" s="3"/>
-      <c r="I445" s="3"/>
-    </row>
-    <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C446" s="3"/>
-      <c r="D446" s="3"/>
-      <c r="E446" s="3"/>
-      <c r="F446" s="3"/>
-      <c r="G446" s="3"/>
-      <c r="H446" s="3"/>
-      <c r="I446" s="3"/>
-    </row>
-    <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="2" t="s">
-        <v>1143</v>
-      </c>
-      <c r="B447" s="2" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C447" s="3"/>
-      <c r="D447" s="3"/>
-      <c r="E447" s="3"/>
-      <c r="F447" s="3"/>
-      <c r="G447" s="3"/>
-      <c r="H447" s="3"/>
-      <c r="I447" s="3"/>
-    </row>
-    <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="2" t="s">
-        <v>1145</v>
-      </c>
-      <c r="B448" s="2" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C448" s="3"/>
-      <c r="D448" s="3"/>
-      <c r="E448" s="3"/>
-      <c r="F448" s="3"/>
-      <c r="G448" s="3"/>
-      <c r="H448" s="3"/>
-      <c r="I448" s="3"/>
-    </row>
-    <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="B449" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="C449" s="3"/>
-      <c r="D449" s="3"/>
-      <c r="E449" s="3"/>
-      <c r="F449" s="3"/>
-      <c r="G449" s="3"/>
-      <c r="H449" s="3"/>
-      <c r="I449" s="3"/>
-    </row>
-    <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C450" s="3"/>
-      <c r="D450" s="3"/>
-      <c r="E450" s="3"/>
-      <c r="F450" s="3"/>
-      <c r="G450" s="3"/>
-      <c r="H450" s="3"/>
-      <c r="I450" s="3"/>
-    </row>
-    <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A451" s="2" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B451" s="4" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C451" s="3"/>
-      <c r="D451" s="3"/>
-      <c r="E451" s="3"/>
-      <c r="F451" s="3"/>
-      <c r="G451" s="3"/>
-      <c r="H451" s="3"/>
-      <c r="I451" s="3"/>
-    </row>
-    <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A452" s="2" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B452" s="2" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C452" s="3"/>
-      <c r="D452" s="3"/>
-      <c r="E452" s="3"/>
-      <c r="F452" s="3"/>
-      <c r="G452" s="3"/>
-      <c r="H452" s="3"/>
-      <c r="I452" s="3"/>
-    </row>
-    <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A453" s="2" t="s">
-        <v>1151</v>
-      </c>
-      <c r="B453" s="2" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C453" s="3"/>
-      <c r="D453" s="3"/>
-      <c r="E453" s="3"/>
-      <c r="F453" s="3"/>
-      <c r="G453" s="3"/>
-      <c r="H453" s="3"/>
-      <c r="I453" s="3"/>
-    </row>
-    <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A454" s="2" t="s">
-        <v>1153</v>
-      </c>
-      <c r="B454" s="2" t="s">
-        <v>1154</v>
-      </c>
-      <c r="C454" s="3"/>
-      <c r="D454" s="3"/>
-      <c r="E454" s="3"/>
-      <c r="F454" s="3"/>
-      <c r="G454" s="3"/>
-      <c r="H454" s="3"/>
-      <c r="I454" s="3"/>
-    </row>
-    <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A455" s="2" t="s">
-        <v>1155</v>
-      </c>
-      <c r="B455" s="2" t="s">
-        <v>1156</v>
-      </c>
-      <c r="C455" s="3"/>
-      <c r="D455" s="3"/>
-      <c r="E455" s="3"/>
-      <c r="F455" s="3"/>
-      <c r="G455" s="3"/>
-      <c r="H455" s="3"/>
-      <c r="I455" s="3"/>
-    </row>
-    <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A456" s="2" t="s">
-        <v>1157</v>
-      </c>
-      <c r="B456" s="2" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C456" s="3"/>
-      <c r="D456" s="3"/>
-      <c r="E456" s="3"/>
-      <c r="F456" s="3"/>
-      <c r="G456" s="3"/>
-      <c r="H456" s="3"/>
-      <c r="I456" s="3"/>
-    </row>
-    <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A457" s="2" t="s">
-        <v>1159</v>
-      </c>
-      <c r="B457" s="4" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C457" s="3"/>
-      <c r="D457" s="3"/>
-      <c r="E457" s="3"/>
-      <c r="F457" s="3"/>
-      <c r="G457" s="3"/>
-      <c r="H457" s="3"/>
-      <c r="I457" s="3"/>
-    </row>
-    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="2" t="s">
-        <v>1161</v>
-      </c>
-      <c r="B458" s="4" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C458" s="3"/>
-      <c r="D458" s="3"/>
-      <c r="E458" s="3"/>
-      <c r="F458" s="3"/>
-      <c r="G458" s="3"/>
-      <c r="H458" s="3"/>
-      <c r="I458" s="3"/>
-    </row>
-    <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A459" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B459" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C459" s="3"/>
-      <c r="D459" s="3"/>
-      <c r="E459" s="3"/>
-      <c r="F459" s="3"/>
-      <c r="G459" s="3"/>
-      <c r="H459" s="3"/>
-      <c r="I459" s="3"/>
-    </row>
-    <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A460" s="2" t="s">
-        <v>1163</v>
-      </c>
-      <c r="B460" s="4" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C460" s="3"/>
-      <c r="D460" s="3"/>
-      <c r="E460" s="3"/>
-      <c r="F460" s="3"/>
-      <c r="G460" s="3"/>
-      <c r="H460" s="3"/>
-      <c r="I460" s="3"/>
-    </row>
-    <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A461" s="2" t="s">
-        <v>1165</v>
-      </c>
-      <c r="B461" s="4" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C461" s="3"/>
-      <c r="D461" s="3"/>
-      <c r="E461" s="3"/>
-      <c r="F461" s="3"/>
-      <c r="G461" s="3"/>
-      <c r="H461" s="3"/>
-      <c r="I461" s="3"/>
-    </row>
-    <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A462" s="2" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B462" s="2" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C462" s="3"/>
-      <c r="D462" s="3"/>
-      <c r="E462" s="3"/>
-      <c r="F462" s="3"/>
-      <c r="G462" s="3"/>
-      <c r="H462" s="3"/>
-      <c r="I462" s="3"/>
-    </row>
-    <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A463" s="2" t="s">
-        <v>1169</v>
-      </c>
-      <c r="B463" s="4" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C463" s="3"/>
-      <c r="D463" s="3"/>
-      <c r="E463" s="3"/>
-      <c r="F463" s="3"/>
-      <c r="G463" s="3"/>
-      <c r="H463" s="3"/>
-      <c r="I463" s="3"/>
-    </row>
-    <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A464" s="2" t="s">
-        <v>1171</v>
-      </c>
-      <c r="B464" s="2" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C464" s="3"/>
-      <c r="D464" s="3"/>
-      <c r="E464" s="3"/>
-      <c r="F464" s="3"/>
-      <c r="G464" s="3"/>
-      <c r="H464" s="3"/>
-      <c r="I464" s="3"/>
-    </row>
-    <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A465" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="B465" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C465" s="3"/>
-      <c r="D465" s="3"/>
-      <c r="E465" s="3"/>
-      <c r="F465" s="3"/>
-      <c r="G465" s="3"/>
-      <c r="H465" s="3"/>
-      <c r="I465" s="3"/>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
